--- a/natmiOut/OldD7/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Pdgfd</t>
   </si>
   <si>
     <t>Pdgfrb</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.9050047929662</v>
+        <v>22.93030166666667</v>
       </c>
       <c r="H2">
-        <v>22.9050047929662</v>
+        <v>68.790905</v>
       </c>
       <c r="I2">
-        <v>0.7779768223345039</v>
+        <v>0.7388742617315771</v>
       </c>
       <c r="J2">
-        <v>0.7779768223345039</v>
+        <v>0.738874261731577</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9759103192808</v>
+        <v>23.463916</v>
       </c>
       <c r="N2">
-        <v>16.9759103192808</v>
+        <v>70.39174800000001</v>
       </c>
       <c r="O2">
-        <v>0.1304071842815303</v>
+        <v>0.1350973942042957</v>
       </c>
       <c r="P2">
-        <v>0.1304071842815303</v>
+        <v>0.1350973942042957</v>
       </c>
       <c r="Q2">
-        <v>388.8333072280911</v>
+        <v>538.0346721613266</v>
       </c>
       <c r="R2">
-        <v>388.8333072280911</v>
+        <v>4842.31204945194</v>
       </c>
       <c r="S2">
-        <v>0.101453766836935</v>
+        <v>0.09981998740455882</v>
       </c>
       <c r="T2">
-        <v>0.101453766836935</v>
+        <v>0.09981998740455879</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.9050047929662</v>
+        <v>22.93030166666667</v>
       </c>
       <c r="H3">
-        <v>22.9050047929662</v>
+        <v>68.790905</v>
       </c>
       <c r="I3">
-        <v>0.7779768223345039</v>
+        <v>0.7388742617315771</v>
       </c>
       <c r="J3">
-        <v>0.7779768223345039</v>
+        <v>0.738874261731577</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>87.7771907232728</v>
+        <v>87.90742766666666</v>
       </c>
       <c r="N3">
-        <v>87.7771907232728</v>
+        <v>263.722283</v>
       </c>
       <c r="O3">
-        <v>0.6742952849700149</v>
+        <v>0.5061416180048238</v>
       </c>
       <c r="P3">
-        <v>0.6742952849700149</v>
+        <v>0.5061416180048238</v>
       </c>
       <c r="Q3">
-        <v>2010.536974229672</v>
+        <v>2015.743835137346</v>
       </c>
       <c r="R3">
-        <v>2010.536974229672</v>
+        <v>18141.69451623612</v>
       </c>
       <c r="S3">
-        <v>0.524586103116111</v>
+        <v>0.3739750143349401</v>
       </c>
       <c r="T3">
-        <v>0.524586103116111</v>
+        <v>0.3739750143349401</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.9050047929662</v>
+        <v>22.93030166666667</v>
       </c>
       <c r="H4">
-        <v>22.9050047929662</v>
+        <v>68.790905</v>
       </c>
       <c r="I4">
-        <v>0.7779768223345039</v>
+        <v>0.7388742617315771</v>
       </c>
       <c r="J4">
-        <v>0.7779768223345039</v>
+        <v>0.738874261731577</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>25.4230883507567</v>
+        <v>0.06395099999999999</v>
       </c>
       <c r="N4">
-        <v>25.4230883507567</v>
+        <v>0.191853</v>
       </c>
       <c r="O4">
-        <v>0.1952975307484549</v>
+        <v>0.0003682085060634768</v>
       </c>
       <c r="P4">
-        <v>0.1952975307484549</v>
+        <v>0.0003682085060634769</v>
       </c>
       <c r="Q4">
-        <v>582.3159605260854</v>
+        <v>1.466415721885</v>
       </c>
       <c r="R4">
-        <v>582.3159605260854</v>
+        <v>13.197741496965</v>
       </c>
       <c r="S4">
-        <v>0.151936952381458</v>
+        <v>0.0002720597880809384</v>
       </c>
       <c r="T4">
-        <v>0.151936952381458</v>
+        <v>0.0002720597880809384</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.53675251316318</v>
+        <v>22.93030166666667</v>
       </c>
       <c r="H5">
-        <v>6.53675251316318</v>
+        <v>68.790905</v>
       </c>
       <c r="I5">
-        <v>0.2220231776654961</v>
+        <v>0.7388742617315771</v>
       </c>
       <c r="J5">
-        <v>0.2220231776654961</v>
+        <v>0.738874261731577</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.9759103192808</v>
+        <v>62.24619000000001</v>
       </c>
       <c r="N5">
-        <v>16.9759103192808</v>
+        <v>186.73857</v>
       </c>
       <c r="O5">
-        <v>0.1304071842815303</v>
+        <v>0.3583927792848171</v>
       </c>
       <c r="P5">
-        <v>0.1304071842815303</v>
+        <v>0.3583927792848171</v>
       </c>
       <c r="Q5">
-        <v>110.9673244427915</v>
+        <v>1427.32391430065</v>
       </c>
       <c r="R5">
-        <v>110.9673244427915</v>
+        <v>12845.91522870585</v>
       </c>
       <c r="S5">
-        <v>0.02895341744459528</v>
+        <v>0.2648072002039973</v>
       </c>
       <c r="T5">
-        <v>0.02895341744459528</v>
+        <v>0.2648072002039972</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.53675251316318</v>
+        <v>6.697696333333333</v>
       </c>
       <c r="H6">
-        <v>6.53675251316318</v>
+        <v>20.093089</v>
       </c>
       <c r="I6">
-        <v>0.2220231776654961</v>
+        <v>0.2158172842875359</v>
       </c>
       <c r="J6">
-        <v>0.2220231776654961</v>
+        <v>0.2158172842875359</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.7771907232728</v>
+        <v>23.463916</v>
       </c>
       <c r="N6">
-        <v>87.7771907232728</v>
+        <v>70.39174800000001</v>
       </c>
       <c r="O6">
-        <v>0.6742952849700149</v>
+        <v>0.1350973942042957</v>
       </c>
       <c r="P6">
-        <v>0.6742952849700149</v>
+        <v>0.1350973942042957</v>
       </c>
       <c r="Q6">
-        <v>573.7777720587573</v>
+        <v>157.1541841588413</v>
       </c>
       <c r="R6">
-        <v>573.7777720587573</v>
+        <v>1414.387657429572</v>
       </c>
       <c r="S6">
-        <v>0.1497091818539039</v>
+        <v>0.02915635273149378</v>
       </c>
       <c r="T6">
-        <v>0.1497091818539039</v>
+        <v>0.02915635273149378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>6.697696333333333</v>
+      </c>
+      <c r="H7">
+        <v>20.093089</v>
+      </c>
+      <c r="I7">
+        <v>0.2158172842875359</v>
+      </c>
+      <c r="J7">
+        <v>0.2158172842875359</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>87.90742766666666</v>
+      </c>
+      <c r="N7">
+        <v>263.722283</v>
+      </c>
+      <c r="O7">
+        <v>0.5061416180048238</v>
+      </c>
+      <c r="P7">
+        <v>0.5061416180048238</v>
+      </c>
+      <c r="Q7">
+        <v>588.7772559557985</v>
+      </c>
+      <c r="R7">
+        <v>5298.995303602187</v>
+      </c>
+      <c r="S7">
+        <v>0.1092341094627005</v>
+      </c>
+      <c r="T7">
+        <v>0.1092341094627004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6.697696333333333</v>
+      </c>
+      <c r="H8">
+        <v>20.093089</v>
+      </c>
+      <c r="I8">
+        <v>0.2158172842875359</v>
+      </c>
+      <c r="J8">
+        <v>0.2158172842875359</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.06395099999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.191853</v>
+      </c>
+      <c r="O8">
+        <v>0.0003682085060634768</v>
+      </c>
+      <c r="P8">
+        <v>0.0003682085060634769</v>
+      </c>
+      <c r="Q8">
+        <v>0.428324378213</v>
+      </c>
+      <c r="R8">
+        <v>3.854919403917</v>
+      </c>
+      <c r="S8">
+        <v>7.946575983019026E-05</v>
+      </c>
+      <c r="T8">
+        <v>7.946575983019026E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.697696333333333</v>
+      </c>
+      <c r="H9">
+        <v>20.093089</v>
+      </c>
+      <c r="I9">
+        <v>0.2158172842875359</v>
+      </c>
+      <c r="J9">
+        <v>0.2158172842875359</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>62.24619000000001</v>
+      </c>
+      <c r="N9">
+        <v>186.73857</v>
+      </c>
+      <c r="O9">
+        <v>0.3583927792848171</v>
+      </c>
+      <c r="P9">
+        <v>0.3583927792848171</v>
+      </c>
+      <c r="Q9">
+        <v>416.90607852697</v>
+      </c>
+      <c r="R9">
+        <v>3752.15470674273</v>
+      </c>
+      <c r="S9">
+        <v>0.07734735633351146</v>
+      </c>
+      <c r="T9">
+        <v>0.07734735633351145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>6.53675251316318</v>
-      </c>
-      <c r="H7">
-        <v>6.53675251316318</v>
-      </c>
-      <c r="I7">
-        <v>0.2220231776654961</v>
-      </c>
-      <c r="J7">
-        <v>0.2220231776654961</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>25.4230883507567</v>
-      </c>
-      <c r="N7">
-        <v>25.4230883507567</v>
-      </c>
-      <c r="O7">
-        <v>0.1952975307484549</v>
-      </c>
-      <c r="P7">
-        <v>0.1952975307484549</v>
-      </c>
-      <c r="Q7">
-        <v>166.1844366691784</v>
-      </c>
-      <c r="R7">
-        <v>166.1844366691784</v>
-      </c>
-      <c r="S7">
-        <v>0.04336057836699687</v>
-      </c>
-      <c r="T7">
-        <v>0.04336057836699687</v>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.406107333333334</v>
+      </c>
+      <c r="H10">
+        <v>4.218322000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.04530845398088702</v>
+      </c>
+      <c r="J10">
+        <v>0.04530845398088701</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>23.463916</v>
+      </c>
+      <c r="N10">
+        <v>70.39174800000001</v>
+      </c>
+      <c r="O10">
+        <v>0.1350973942042957</v>
+      </c>
+      <c r="P10">
+        <v>0.1350973942042957</v>
+      </c>
+      <c r="Q10">
+        <v>32.99278435631734</v>
+      </c>
+      <c r="R10">
+        <v>296.9350592068561</v>
+      </c>
+      <c r="S10">
+        <v>0.006121054068243083</v>
+      </c>
+      <c r="T10">
+        <v>0.006121054068243082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.406107333333334</v>
+      </c>
+      <c r="H11">
+        <v>4.218322000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.04530845398088702</v>
+      </c>
+      <c r="J11">
+        <v>0.04530845398088701</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>87.90742766666666</v>
+      </c>
+      <c r="N11">
+        <v>263.722283</v>
+      </c>
+      <c r="O11">
+        <v>0.5061416180048238</v>
+      </c>
+      <c r="P11">
+        <v>0.5061416180048238</v>
+      </c>
+      <c r="Q11">
+        <v>123.6072786965696</v>
+      </c>
+      <c r="R11">
+        <v>1112.465508269126</v>
+      </c>
+      <c r="S11">
+        <v>0.02293249420718325</v>
+      </c>
+      <c r="T11">
+        <v>0.02293249420718325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.406107333333334</v>
+      </c>
+      <c r="H12">
+        <v>4.218322000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.04530845398088702</v>
+      </c>
+      <c r="J12">
+        <v>0.04530845398088701</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.06395099999999999</v>
+      </c>
+      <c r="N12">
+        <v>0.191853</v>
+      </c>
+      <c r="O12">
+        <v>0.0003682085060634768</v>
+      </c>
+      <c r="P12">
+        <v>0.0003682085060634769</v>
+      </c>
+      <c r="Q12">
+        <v>0.089921970074</v>
+      </c>
+      <c r="R12">
+        <v>0.8092977306660001</v>
+      </c>
+      <c r="S12">
+        <v>1.66829581523482E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.66829581523482E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.406107333333334</v>
+      </c>
+      <c r="H13">
+        <v>4.218322000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.04530845398088702</v>
+      </c>
+      <c r="J13">
+        <v>0.04530845398088701</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>62.24619000000001</v>
+      </c>
+      <c r="N13">
+        <v>186.73857</v>
+      </c>
+      <c r="O13">
+        <v>0.3583927792848171</v>
+      </c>
+      <c r="P13">
+        <v>0.3583927792848171</v>
+      </c>
+      <c r="Q13">
+        <v>87.52482423106002</v>
+      </c>
+      <c r="R13">
+        <v>787.7234180795401</v>
+      </c>
+      <c r="S13">
+        <v>0.01623822274730833</v>
+      </c>
+      <c r="T13">
+        <v>0.01623822274730833</v>
       </c>
     </row>
   </sheetData>
